--- a/com.expedia/src/test/resources/test_data.xlsx
+++ b/com.expedia/src/test/resources/test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadou\IdeaProjects\SeleniumBootcamp\com.expedia\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A97F9E-0EC3-4FA9-B909-45F1EA28221B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA9FB6C-3B2C-4794-9FA4-9E10E268AE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="17280" windowHeight="8880" xr2:uid="{D6F5EEF3-FCFF-41E8-922F-46A7C12C28FF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D6F5EEF3-FCFF-41E8-922F-46A7C12C28FF}"/>
   </bookViews>
   <sheets>
     <sheet name="doSignIn" sheetId="1" r:id="rId1"/>
+    <sheet name="expedia_search" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>abdullah.noor14@gmail.com</t>
   </si>
@@ -52,6 +53,24 @@
   </si>
   <si>
     <t>abcd1234!!!</t>
+  </si>
+  <si>
+    <t>Going</t>
+  </si>
+  <si>
+    <t>From_Date</t>
+  </si>
+  <si>
+    <t>End_Date</t>
+  </si>
+  <si>
+    <t>Virginia Beach</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
   </si>
 </sst>
 </file>
@@ -101,10 +120,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -422,8 +442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE836694-DC5B-441D-A741-0712F5F19C8D}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -464,4 +484,46 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD84611B-2959-4C7C-9754-C8FFD062C39E}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/com.expedia/src/test/resources/test_data.xlsx
+++ b/com.expedia/src/test/resources/test_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sadou\IdeaProjects\SeleniumBootcamp\com.expedia\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA9FB6C-3B2C-4794-9FA4-9E10E268AE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E2585D-83B2-455A-B332-166A7D76593C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D6F5EEF3-FCFF-41E8-922F-46A7C12C28FF}"/>
+    <workbookView xWindow="1608" yWindow="1332" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{D6F5EEF3-FCFF-41E8-922F-46A7C12C28FF}"/>
   </bookViews>
   <sheets>
     <sheet name="doSignIn" sheetId="1" r:id="rId1"/>
@@ -443,7 +443,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,25 +461,25 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" xr:uid="{A8A073B9-AC0C-4AF2-87D0-4F12E9BE172B}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{6B4FB31D-F7B0-473B-ABB8-F92CD6693E9F}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{A8A073B9-AC0C-4AF2-87D0-4F12E9BE172B}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{6B4FB31D-F7B0-473B-ABB8-F92CD6693E9F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
